--- a/bc25.xlsx
+++ b/bc25.xlsx
@@ -1326,7 +1326,7 @@
     <x:col min="100" max="102" width="9.140625" style="0" bestFit="true" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:99">
+    <x:row r="1" spans="1:102">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -1625,7 +1625,7 @@
         <x:v>98</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:99">
+    <x:row r="2" spans="1:102">
       <x:c r="A2" s="0" t="s">
         <x:v>99</x:v>
       </x:c>
@@ -2293,7 +2293,7 @@
     <x:col min="22" max="25" width="9.140625" style="0" bestFit="true" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:21">
+    <x:row r="1" spans="1:25">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -2358,7 +2358,7 @@
         <x:v>156</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:21">
+    <x:row r="2" spans="1:25">
       <x:c r="A2" s="0" t="s">
         <x:v>99</x:v>
       </x:c>
@@ -2402,7 +2402,7 @@
         <x:v>500</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:21">
+    <x:row r="3" spans="1:25">
       <x:c r="A3" s="0" t="s">
         <x:v>99</x:v>
       </x:c>
@@ -2446,7 +2446,7 @@
         <x:v>500</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:21">
+    <x:row r="4" spans="1:25">
       <x:c r="A4" s="0" t="s">
         <x:v>99</x:v>
       </x:c>
@@ -2490,7 +2490,7 @@
         <x:v>500</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:21">
+    <x:row r="5" spans="1:25">
       <x:c r="A5" s="0" t="s">
         <x:v>99</x:v>
       </x:c>
@@ -2534,7 +2534,7 @@
         <x:v>238</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:21">
+    <x:row r="6" spans="1:25">
       <x:c r="A6" s="0" t="s">
         <x:v>99</x:v>
       </x:c>
@@ -2578,7 +2578,7 @@
         <x:v>238</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:21">
+    <x:row r="7" spans="1:25">
       <x:c r="A7" s="0" t="s">
         <x:v>99</x:v>
       </x:c>
@@ -2622,7 +2622,7 @@
         <x:v>238</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:21">
+    <x:row r="8" spans="1:25">
       <x:c r="A8" s="0" t="s">
         <x:v>99</x:v>
       </x:c>
@@ -2666,7 +2666,7 @@
         <x:v>500</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:21">
+    <x:row r="9" spans="1:25">
       <x:c r="A9" s="0" t="s">
         <x:v>99</x:v>
       </x:c>
@@ -2710,7 +2710,7 @@
         <x:v>500</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:21">
+    <x:row r="10" spans="1:25">
       <x:c r="A10" s="0" t="s">
         <x:v>99</x:v>
       </x:c>
